--- a/biology/Botanique/Nolina/Nolina.xlsx
+++ b/biology/Botanique/Nolina/Nolina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nolina (les Nolines) est un genre de plantes succulentes.
 Il est classé dans les familles botaniques Nolinaceae, Agavaceae, Ruscaceae, ou Asparagaceae, selon le périmètre retenu pour chaque famille.
@@ -488,7 +500,7 @@
 Certains botanistes incluent le genre Beaucarnea dans Nolina.
 Certaines Nolines sont cultivées comme plantes ornementales.
 À maturité la Noline peut mesurer entre deux et cinq mètres de hauteur et deux mètres de largeur.
-Elle résiste bien au froid, et peut tolérer jusqu'à -15°. Elle fleurit entre avril et septembre, ses fleurs ne mesurent que deux millimètres de diamètre mais restent très attractives pour les abeilles[3].
+Elle résiste bien au froid, et peut tolérer jusqu'à -15°. Elle fleurit entre avril et septembre, ses fleurs ne mesurent que deux millimètres de diamètre mais restent très attractives pour les abeilles.
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (23 août 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 août 2021) :
 Nolina arenicola Correll
 Nolina atopocarpa Bartlett
 Nolina azureogladiata D. Donati
@@ -549,7 +563,7 @@
 Nolina pumila Rose
 Nolina rigida Trel.
 Nolina texana S. Wats.
-Selon ITIS      (23 août 2021)[4] :
+Selon ITIS      (23 août 2021) :
 Nolina arenicola Correll
 Nolina atopocarpa Bartlett
 Nolina bigelovii (Torr.) S. Watson
@@ -564,7 +578,7 @@
 Nolina microcarpa S. Watson
 Nolina parryi S. Watson
 Nolina texana S. Watson
-Selon World Checklist of Selected Plant Families (WCSP)  (23 août 2021)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (23 août 2021) :
 Nolina arenicola Correll (1968)
 Nolina atopocarpa Bartlett (1909)
 Nolina azureogladiata D.Donati (2011)
@@ -600,7 +614,7 @@
 Nolina rodriguezii Ruiz-Sanchez, P.Carrillo &amp; L.Hern. (2019)
 Nolina texana S.Watson (1879)
 Nolina watsonii (Baker) Hemsl., Biol. Cent.-Amer. (1884)
-Selon NCBI  (23 août 2021)[6] :
+Selon NCBI  (23 août 2021) :
 Nolina atopocarpa Bartlett
 Nolina beldingii Brandegee
 Nolina bigelovii (Torr.) S.Watson
@@ -617,7 +631,7 @@
 Nolina nelsonii Rose
 Nolina palmeri S.Watson
 Nolina parviflora (Kunth) Hemsl.
-Selon The Plant List            (23 août 2021)[7] :
+Selon The Plant List            (23 août 2021) :
 Nolina arenicola Correll
 Nolina atopocarpa Bartlett
 Nolina azureogladiata D.Donati
@@ -647,7 +661,7 @@
 Nolina pumila Rose
 Nolina rigida Trel.
 Nolina texana S.Watson
-Selon Tropicos                                           (23 août 2021)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 août 2021) (Attention liste brute contenant possiblement des synonymes) :
 Nolina affinis Trel.
 Nolina altamiranoana Rose
 Nolina arenicola Correll
